--- a/templates/output/template3.xlsx
+++ b/templates/output/template3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>TOWER EXISTING</t>
   </si>
@@ -138,9 +138,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>Gantry GI Serpong 150KV</t>
-  </si>
-  <si>
     <t>PT. PLN (PERSERO)</t>
   </si>
   <si>
@@ -183,10 +180,10 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>Gantry GI Gandul</t>
-  </si>
-  <si>
     <t>Koefisien</t>
+  </si>
+  <si>
+    <t>GANTRY</t>
   </si>
 </sst>
 </file>
@@ -1118,82 +1115,136 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1209,129 +1260,75 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1717,7 +1714,7 @@
   <dimension ref="B1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1742,63 +1739,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="126"/>
+      <c r="B1" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="65"/>
     </row>
     <row r="2" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="60"/>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="68" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
       <c r="R2" s="28"/>
     </row>
     <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
+      <c r="E3" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="120"/>
       <c r="K3" s="29"/>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -1809,34 +1806,34 @@
       <c r="R3" s="31"/>
     </row>
     <row r="4" spans="2:19" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="70" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
       <c r="R4" s="32"/>
       <c r="S4" s="19"/>
     </row>
     <row r="5" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="27"/>
       <c r="E5" s="42"/>
       <c r="F5" s="43"/>
@@ -1844,15 +1841,15 @@
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
       <c r="J5" s="41"/>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="99"/>
+      <c r="M5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="N5" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
@@ -1861,17 +1858,17 @@
       <c r="S5" s="20"/>
     </row>
     <row r="6" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85"/>
+      <c r="E6" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
       <c r="K6" s="34"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
@@ -1886,32 +1883,32 @@
       <c r="B7" s="61"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="73"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="130"/>
       <c r="M7" s="30"/>
       <c r="N7" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O7" s="26"/>
       <c r="P7" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="134"/>
+        <v>40</v>
+      </c>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="80"/>
       <c r="S7" s="20"/>
     </row>
     <row r="8" spans="2:19" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -1928,72 +1925,72 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="2:19" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="93" t="s">
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="74" t="s">
+      <c r="J9" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="74" t="s">
+      <c r="L9" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="91" t="s">
+      <c r="M9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="93" t="s">
+      <c r="N9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="93" t="s">
+      <c r="O9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="130" t="s">
+      <c r="P9" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="132"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="78"/>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
       <c r="P10" s="53" t="s">
         <v>15</v>
       </c>
@@ -2003,14 +2000,14 @@
       <c r="R10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="89" t="s">
+      <c r="S10" s="107" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="55" t="s">
         <v>18</v>
       </c>
@@ -2020,11 +2017,11 @@
       <c r="G11" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
       <c r="M11" s="57" t="s">
         <v>18</v>
       </c>
@@ -2043,16 +2040,16 @@
       <c r="R11" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="90"/>
+      <c r="S11" s="108"/>
     </row>
     <row r="12" spans="2:19" ht="8.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="4"/>
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
@@ -2064,175 +2061,175 @@
       <c r="M12" s="50"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="111"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="87"/>
     </row>
     <row r="13" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="115">
+      <c r="B13" s="90"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="91">
         <v>441.8</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="72">
         <f>E13</f>
         <v>441.8</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="72">
         <v>0</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="72">
         <v>1</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="72">
         <f>0.2*H13</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="72">
         <v>8</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="72">
         <f>E13*E13*G13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="67">
+      <c r="L13" s="72">
         <f>8*I13</f>
         <v>1.6</v>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="72">
         <f>K13/L13/1000</f>
         <v>0</v>
       </c>
-      <c r="N13" s="67">
+      <c r="N13" s="72">
         <f>8*M13*M13/300</f>
         <v>0</v>
       </c>
-      <c r="O13" s="67">
+      <c r="O13" s="72">
         <f>E13+N13</f>
         <v>441.8</v>
       </c>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="112"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="88"/>
     </row>
     <row r="14" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67">
+      <c r="E14" s="92"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72">
         <f>(E13+E15)/2</f>
         <v>396.315</v>
       </c>
-      <c r="R14" s="104">
+      <c r="R14" s="70">
         <f>P14/Q14</f>
         <v>0</v>
       </c>
-      <c r="S14" s="102" t="str">
+      <c r="S14" s="114" t="str">
         <f>+B14</f>
         <v>T1</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="118"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="122">
+      <c r="B15" s="67"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="96">
         <v>350.83</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="72">
         <f>F13+E15</f>
         <v>792.63</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="72">
         <v>0</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="72">
         <v>1</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="72">
         <f>0.2*H15</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="72">
         <v>9</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="72">
         <f>E15*E15*G15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="67">
+      <c r="L15" s="72">
         <f>8*I15</f>
         <v>1.6</v>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="72">
         <f>K15/L15/1000</f>
         <v>0</v>
       </c>
-      <c r="N15" s="67">
+      <c r="N15" s="72">
         <f>8*M15*M15/300</f>
         <v>0</v>
       </c>
-      <c r="O15" s="67">
+      <c r="O15" s="72">
         <f>E15+N15</f>
         <v>350.83</v>
       </c>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="102"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="114"/>
     </row>
     <row r="16" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="102" t="str">
+      <c r="C16" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="114" t="str">
         <f>+B16</f>
         <v>G</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="118"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="5"/>
       <c r="F17" s="48"/>
       <c r="G17" s="47"/>
@@ -2244,10 +2241,10 @@
       <c r="M17" s="51"/>
       <c r="N17" s="52"/>
       <c r="O17" s="52"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="102"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="114"/>
     </row>
     <row r="18" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
@@ -2263,23 +2260,73 @@
       <c r="L18" s="10"/>
       <c r="M18" s="11"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="13">
-        <f>SUM(O14:O17)</f>
-        <v>350.83</v>
-      </c>
+      <c r="O18" s="13"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="15"/>
       <c r="S18" s="16"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="17">
-        <f>O18*12</f>
-        <v>4209.96</v>
-      </c>
+      <c r="O20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E6:J7"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M4:Q4"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:D17"/>
@@ -2296,62 +2343,6 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E6:J7"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.18" right="0.2" top="0.25" bottom="0.23" header="0.3" footer="0.16"/>
